--- a/doc/后台接口整理.xlsx
+++ b/doc/后台接口整理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="已做完的接口" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="372">
   <si>
     <t>需求名称</t>
   </si>
@@ -780,15 +780,9 @@
     <t>back2/livehistory/index</t>
   </si>
   <si>
-    <t>starttime</t>
-  </si>
-  <si>
     <t>开播时间</t>
   </si>
   <si>
-    <t>endtime</t>
-  </si>
-  <si>
     <t>直播收益</t>
   </si>
   <si>
@@ -804,13 +798,7 @@
     <t>点赞数</t>
   </si>
   <si>
-    <t>room_name</t>
-  </si>
-  <si>
     <t>房间名称</t>
-  </si>
-  <si>
-    <t>push</t>
   </si>
   <si>
     <t>推流地址</t>
@@ -1121,19 +1109,49 @@
   </si>
   <si>
     <t>奖励管理</t>
+  </si>
+  <si>
+    <t>starttime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>kubi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>praise</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,151 +1202,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1337,19 +1217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,194 +1239,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1619,255 +1313,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1889,16 +1341,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1925,16 +1368,37 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,9 +1419,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1970,9 +1431,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,57 +1438,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2321,23 +1732,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G188" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E204" sqref="E204:F204"/>
+      <selection pane="bottomRight" activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="36" style="5" customWidth="1"/>
@@ -2367,8 +1778,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" hidden="1">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2383,8 +1794,8 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" hidden="1" spans="1:6">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:6" hidden="1">
+      <c r="A3" s="21"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2397,8 +1808,8 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" hidden="1" spans="1:6">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:6" hidden="1">
+      <c r="A4" s="21"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2411,8 +1822,8 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" hidden="1" spans="1:6">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:6" hidden="1">
+      <c r="A5" s="21"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2425,8 +1836,8 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" hidden="1" spans="1:6">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:6" hidden="1">
+      <c r="A6" s="21"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2439,410 +1850,410 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" hidden="1" spans="1:6">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:6" hidden="1">
+      <c r="A7" s="21"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" hidden="1" spans="1:6">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" hidden="1" spans="1:6">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" ht="15" hidden="1">
+      <c r="A9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:6" ht="15" hidden="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:6" ht="15" hidden="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:6" ht="15" hidden="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:6" ht="15" hidden="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:6" ht="15" hidden="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:6" ht="15" hidden="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:6" ht="15" hidden="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:6" ht="15" hidden="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:6" ht="15" hidden="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:6" ht="15" hidden="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:6" ht="15" hidden="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:6" ht="15" hidden="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:6" ht="15" hidden="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:6" ht="15" hidden="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:6" ht="15" hidden="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="1:6" ht="15" hidden="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="13" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:6" ht="15" hidden="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="1:6" ht="15" hidden="1">
+      <c r="A27" s="23"/>
+      <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="1:6" ht="15" hidden="1">
+      <c r="A28" s="23"/>
+      <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="1:6" ht="15" hidden="1">
+      <c r="A29" s="23"/>
+      <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:6" ht="15" hidden="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:6" ht="15" hidden="1">
+      <c r="A31" s="23"/>
+      <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:6">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="1:6" ht="15" hidden="1">
+      <c r="A32" s="23"/>
+      <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="13" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="1:6" ht="15" hidden="1">
+      <c r="A33" s="23"/>
+      <c r="B33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="1:6" ht="15" hidden="1">
+      <c r="A34" s="23"/>
+      <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:6">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:6" ht="15" hidden="1">
+      <c r="A35" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2854,15 +2265,15 @@
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:6">
-      <c r="A36" s="3"/>
+    <row r="36" spans="1:6" ht="15" hidden="1">
+      <c r="A36" s="24"/>
       <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
@@ -2872,15 +2283,15 @@
       <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:6">
-      <c r="A37" s="3"/>
+    <row r="37" spans="1:6" ht="15" hidden="1">
+      <c r="A37" s="24"/>
       <c r="B37" s="3" t="s">
         <v>77</v>
       </c>
@@ -2890,15 +2301,15 @@
       <c r="D37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:6">
-      <c r="A38" s="3"/>
+    <row r="38" spans="1:6" ht="15" hidden="1">
+      <c r="A38" s="24"/>
       <c r="B38" s="3" t="s">
         <v>77</v>
       </c>
@@ -2908,15 +2319,15 @@
       <c r="D38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:6">
-      <c r="A39" s="3"/>
+    <row r="39" spans="1:6" ht="15" hidden="1">
+      <c r="A39" s="24"/>
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
@@ -2926,15 +2337,15 @@
       <c r="D39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:6">
-      <c r="A40" s="3"/>
+    <row r="40" spans="1:6" ht="15" hidden="1">
+      <c r="A40" s="24"/>
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
@@ -2944,193 +2355,193 @@
       <c r="D40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="12" t="s">
         <v>89</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:6">
-      <c r="A41" s="3"/>
+    <row r="41" spans="1:6" ht="15" hidden="1">
+      <c r="A41" s="24"/>
       <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:6">
-      <c r="A42" s="3"/>
+    <row r="42" spans="1:6" ht="15" hidden="1">
+      <c r="A42" s="24"/>
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" hidden="1" spans="1:6">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:6" ht="15" hidden="1">
+      <c r="A43" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:6">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="1:6" ht="15" hidden="1">
+      <c r="A44" s="23"/>
+      <c r="B44" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="1:6" ht="15" hidden="1">
+      <c r="A45" s="23"/>
+      <c r="B45" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11" t="s">
+    <row r="46" spans="1:6" ht="15" hidden="1">
+      <c r="A46" s="23"/>
+      <c r="B46" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:6">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+    <row r="47" spans="1:6" ht="15" hidden="1">
+      <c r="A47" s="23"/>
+      <c r="B47" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11" t="s">
+    <row r="48" spans="1:6" ht="15" hidden="1">
+      <c r="A48" s="23"/>
+      <c r="B48" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:6">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
+    <row r="49" spans="1:6" ht="15" hidden="1">
+      <c r="A49" s="23"/>
+      <c r="B49" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:6">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11" t="s">
+    <row r="50" spans="1:6" ht="15" hidden="1">
+      <c r="A50" s="23"/>
+      <c r="B50" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:6">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:6" ht="15" hidden="1">
+      <c r="A51" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -3142,15 +2553,15 @@
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="12" t="s">
         <v>102</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:6">
-      <c r="A52" s="3"/>
+    <row r="52" spans="1:6" ht="15" hidden="1">
+      <c r="A52" s="24"/>
       <c r="B52" s="3" t="s">
         <v>101</v>
       </c>
@@ -3160,15 +2571,15 @@
       <c r="D52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:6">
-      <c r="A53" s="3"/>
+    <row r="53" spans="1:6" ht="15" hidden="1">
+      <c r="A53" s="24"/>
       <c r="B53" s="3" t="s">
         <v>101</v>
       </c>
@@ -3178,15 +2589,15 @@
       <c r="D53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="12" t="s">
         <v>104</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:6">
-      <c r="A54" s="3"/>
+    <row r="54" spans="1:6" ht="15" hidden="1">
+      <c r="A54" s="24"/>
       <c r="B54" s="3" t="s">
         <v>101</v>
       </c>
@@ -3196,15 +2607,15 @@
       <c r="D54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:6">
-      <c r="A55" s="3"/>
+    <row r="55" spans="1:6" ht="15" hidden="1">
+      <c r="A55" s="24"/>
       <c r="B55" s="3" t="s">
         <v>101</v>
       </c>
@@ -3214,15 +2625,15 @@
       <c r="D55" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="12" t="s">
         <v>107</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:6">
-      <c r="A56" s="3"/>
+    <row r="56" spans="1:6" ht="15" hidden="1">
+      <c r="A56" s="24"/>
       <c r="B56" s="3" t="s">
         <v>101</v>
       </c>
@@ -3232,225 +2643,225 @@
       <c r="D56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="12" t="s">
         <v>110</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:6">
-      <c r="A57" s="3"/>
+    <row r="57" spans="1:6" ht="15" hidden="1">
+      <c r="A57" s="24"/>
       <c r="B57" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="12" t="s">
         <v>112</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:6">
-      <c r="A58" s="3"/>
+    <row r="58" spans="1:6" ht="15" hidden="1">
+      <c r="A58" s="24"/>
       <c r="B58" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:6">
-      <c r="A59" s="3"/>
+    <row r="59" spans="1:6" ht="15" hidden="1">
+      <c r="A59" s="24"/>
       <c r="B59" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:6">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:6" ht="15" hidden="1">
+      <c r="A60" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:6">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11" t="s">
+    <row r="61" spans="1:6" ht="15" hidden="1">
+      <c r="A61" s="23"/>
+      <c r="B61" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:6">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11" t="s">
+    <row r="62" spans="1:6" ht="15" hidden="1">
+      <c r="A62" s="23"/>
+      <c r="B62" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:6">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="1:6" ht="15" hidden="1">
+      <c r="A63" s="23"/>
+      <c r="B63" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:6">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11" t="s">
+    <row r="64" spans="1:6" ht="15" hidden="1">
+      <c r="A64" s="23"/>
+      <c r="B64" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:6">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11" t="s">
+    <row r="65" spans="1:6" ht="15" hidden="1">
+      <c r="A65" s="23"/>
+      <c r="B65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:6">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11" t="s">
+    <row r="66" spans="1:6" ht="15" hidden="1">
+      <c r="A66" s="23"/>
+      <c r="B66" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:6">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11" t="s">
+    <row r="67" spans="1:6" ht="15" hidden="1">
+      <c r="A67" s="23"/>
+      <c r="B67" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:6">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11" t="s">
+    <row r="68" spans="1:6" ht="15" hidden="1">
+      <c r="A68" s="23"/>
+      <c r="B68" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="13" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:6">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:6" ht="15" hidden="1">
+      <c r="A69" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -3462,15 +2873,15 @@
       <c r="D69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="12" t="s">
         <v>120</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:6">
-      <c r="A70" s="3"/>
+    <row r="70" spans="1:6" ht="15" hidden="1">
+      <c r="A70" s="24"/>
       <c r="B70" s="3" t="s">
         <v>119</v>
       </c>
@@ -3480,15 +2891,15 @@
       <c r="D70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:6">
-      <c r="A71" s="3"/>
+    <row r="71" spans="1:6" ht="15" hidden="1">
+      <c r="A71" s="24"/>
       <c r="B71" s="3" t="s">
         <v>119</v>
       </c>
@@ -3498,15 +2909,15 @@
       <c r="D71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="12" t="s">
         <v>124</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:6">
-      <c r="A72" s="3"/>
+    <row r="72" spans="1:6" ht="15" hidden="1">
+      <c r="A72" s="24"/>
       <c r="B72" s="3" t="s">
         <v>119</v>
       </c>
@@ -3516,15 +2927,15 @@
       <c r="D72" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:6">
-      <c r="A73" s="3"/>
+    <row r="73" spans="1:6" ht="15" hidden="1">
+      <c r="A73" s="24"/>
       <c r="B73" s="3" t="s">
         <v>119</v>
       </c>
@@ -3534,195 +2945,195 @@
       <c r="D73" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="12" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:6">
-      <c r="A74" s="3"/>
+    <row r="74" spans="1:6" ht="15" hidden="1">
+      <c r="A74" s="24"/>
       <c r="B74" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="12" t="s">
         <v>130</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:6">
-      <c r="A75" s="3"/>
+    <row r="75" spans="1:6" ht="15" hidden="1">
+      <c r="A75" s="24"/>
       <c r="B75" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:6">
-      <c r="A76" s="3"/>
+    <row r="76" spans="1:6" ht="15" hidden="1">
+      <c r="A76" s="24"/>
       <c r="B76" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:6">
-      <c r="A77" s="3"/>
+    <row r="77" spans="1:6" ht="15" hidden="1">
+      <c r="A77" s="24"/>
       <c r="B77" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:6">
-      <c r="A78" s="3"/>
+    <row r="78" spans="1:6" ht="15" hidden="1">
+      <c r="A78" s="24"/>
       <c r="B78" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="12" t="s">
         <v>138</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:6">
-      <c r="A79" s="3"/>
+    <row r="79" spans="1:6" ht="15" hidden="1">
+      <c r="A79" s="24"/>
       <c r="B79" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="12" t="s">
         <v>140</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:6">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:6" ht="15" hidden="1">
+      <c r="A80" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:6">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11" t="s">
+    <row r="81" spans="1:6" ht="15" hidden="1">
+      <c r="A81" s="23"/>
+      <c r="B81" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:6">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11" t="s">
+    <row r="82" spans="1:6" ht="15" hidden="1">
+      <c r="A82" s="23"/>
+      <c r="B82" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:6">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11" t="s">
+    <row r="83" spans="1:6" ht="15" hidden="1">
+      <c r="A83" s="23"/>
+      <c r="B83" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:6">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11" t="s">
+    <row r="84" spans="1:6" ht="15" hidden="1">
+      <c r="A84" s="23"/>
+      <c r="B84" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="13" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:6">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:6" ht="15" hidden="1">
+      <c r="A85" s="24" t="s">
         <v>153</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -3734,15 +3145,15 @@
       <c r="D85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="12" t="s">
         <v>144</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:6">
-      <c r="A86" s="3"/>
+    <row r="86" spans="1:6" ht="15" hidden="1">
+      <c r="A86" s="24"/>
       <c r="B86" s="3" t="s">
         <v>154</v>
       </c>
@@ -3752,223 +3163,223 @@
       <c r="D86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:6">
-      <c r="A87" s="3"/>
+    <row r="87" spans="1:6" ht="15" hidden="1">
+      <c r="A87" s="24"/>
       <c r="B87" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="12" t="s">
         <v>147</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:6">
-      <c r="A88" s="3"/>
+    <row r="88" spans="1:6" ht="15" hidden="1">
+      <c r="A88" s="24"/>
       <c r="B88" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="12" t="s">
         <v>149</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:6">
-      <c r="A89" s="3"/>
+    <row r="89" spans="1:6" ht="15" hidden="1">
+      <c r="A89" s="24"/>
       <c r="B89" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="12" t="s">
         <v>151</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:6">
-      <c r="A90" s="3"/>
+    <row r="90" spans="1:6" ht="15" hidden="1">
+      <c r="A90" s="24"/>
       <c r="B90" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:6">
-      <c r="A91" s="3"/>
+    <row r="91" spans="1:6" ht="15" hidden="1">
+      <c r="A91" s="24"/>
       <c r="B91" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="12" t="s">
         <v>156</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:6">
-      <c r="A92" s="3"/>
+    <row r="92" spans="1:6" ht="15" hidden="1">
+      <c r="A92" s="24"/>
       <c r="B92" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:6">
-      <c r="A93" s="19" t="s">
+    <row r="93" spans="1:6" ht="15" hidden="1">
+      <c r="A93" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:6">
-      <c r="A94" s="20"/>
-      <c r="B94" s="11" t="s">
+    <row r="94" spans="1:6" ht="15" hidden="1">
+      <c r="A94" s="26"/>
+      <c r="B94" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E94" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:6">
-      <c r="A95" s="20"/>
-      <c r="B95" s="11" t="s">
+    <row r="95" spans="1:6" ht="15" hidden="1">
+      <c r="A95" s="26"/>
+      <c r="B95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:6">
-      <c r="A96" s="20"/>
-      <c r="B96" s="11" t="s">
+    <row r="96" spans="1:6" ht="15" hidden="1">
+      <c r="A96" s="26"/>
+      <c r="B96" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:6">
-      <c r="A97" s="20"/>
-      <c r="B97" s="11" t="s">
+    <row r="97" spans="1:6" ht="15" hidden="1">
+      <c r="A97" s="26"/>
+      <c r="B97" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:6">
-      <c r="A98" s="20"/>
-      <c r="B98" s="11" t="s">
+    <row r="98" spans="1:6" ht="15" hidden="1">
+      <c r="A98" s="26"/>
+      <c r="B98" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="22" t="s">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:6">
-      <c r="A99" s="20"/>
-      <c r="B99" s="11" t="s">
+    <row r="99" spans="1:6" ht="15" hidden="1">
+      <c r="A99" s="26"/>
+      <c r="B99" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" hidden="1" spans="1:6">
-      <c r="A100" s="7" t="s">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" hidden="1">
+      <c r="A100" s="20" t="s">
         <v>169</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -3980,225 +3391,225 @@
       <c r="D100" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="12" t="s">
         <v>144</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:6">
-      <c r="A101" s="8"/>
+    <row r="101" spans="1:6" ht="15" hidden="1">
+      <c r="A101" s="21"/>
       <c r="B101" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="12" t="s">
         <v>172</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:6">
-      <c r="A102" s="8"/>
+    <row r="102" spans="1:6" ht="15" hidden="1">
+      <c r="A102" s="21"/>
       <c r="B102" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="12" t="s">
         <v>147</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:6">
-      <c r="A103" s="8"/>
+    <row r="103" spans="1:6" ht="15" hidden="1">
+      <c r="A103" s="21"/>
       <c r="B103" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:6">
-      <c r="A104" s="8"/>
+    <row r="104" spans="1:6" ht="15" hidden="1">
+      <c r="A104" s="21"/>
       <c r="B104" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="12" t="s">
         <v>174</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:6">
-      <c r="A105" s="8"/>
+    <row r="105" spans="1:6" ht="15" hidden="1">
+      <c r="A105" s="21"/>
       <c r="B105" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="12" t="s">
         <v>176</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:6">
-      <c r="A106" s="8"/>
+    <row r="106" spans="1:6" ht="15" hidden="1">
+      <c r="A106" s="21"/>
       <c r="B106" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="12" t="s">
         <v>178</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:6">
-      <c r="A107" s="8"/>
+    <row r="107" spans="1:6" ht="15" hidden="1">
+      <c r="A107" s="21"/>
       <c r="B107" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="12" t="s">
         <v>180</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:6">
-      <c r="A108" s="10"/>
+    <row r="108" spans="1:6" ht="15" hidden="1">
+      <c r="A108" s="22"/>
       <c r="B108" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="15" t="s">
+      <c r="E108" s="12" t="s">
         <v>182</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:6">
-      <c r="A109" s="23" t="s">
+    <row r="109" spans="1:6" hidden="1">
+      <c r="A109" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:6">
-      <c r="A110" s="24"/>
-      <c r="B110" s="11" t="s">
+    <row r="110" spans="1:6" hidden="1">
+      <c r="A110" s="28"/>
+      <c r="B110" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" hidden="1" spans="1:6">
-      <c r="A111" s="24"/>
-      <c r="B111" s="11" t="s">
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6" hidden="1">
+      <c r="A111" s="28"/>
+      <c r="B111" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" hidden="1" spans="1:6">
-      <c r="A112" s="24"/>
-      <c r="B112" s="11" t="s">
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6" hidden="1">
+      <c r="A112" s="28"/>
+      <c r="B112" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" hidden="1" spans="1:6">
-      <c r="A113" s="24"/>
-      <c r="B113" s="11" t="s">
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="1:6" hidden="1">
+      <c r="A113" s="28"/>
+      <c r="B113" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" hidden="1" spans="1:6">
-      <c r="A114" s="24"/>
-      <c r="B114" s="11" t="s">
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="1:6" hidden="1">
+      <c r="A114" s="28"/>
+      <c r="B114" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="D114" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" hidden="1" spans="1:6">
-      <c r="A115" s="7" t="s">
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" hidden="1">
+      <c r="A115" s="20" t="s">
         <v>191</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -4210,15 +3621,15 @@
       <c r="D115" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E115" s="15" t="s">
+      <c r="E115" s="12" t="s">
         <v>102</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:6">
-      <c r="A116" s="8"/>
+    <row r="116" spans="1:6" ht="15" hidden="1">
+      <c r="A116" s="21"/>
       <c r="B116" s="3" t="s">
         <v>192</v>
       </c>
@@ -4228,15 +3639,15 @@
       <c r="D116" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E116" s="15" t="s">
+      <c r="E116" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:6">
-      <c r="A117" s="8"/>
+    <row r="117" spans="1:6" ht="15" hidden="1">
+      <c r="A117" s="21"/>
       <c r="B117" s="3" t="s">
         <v>192</v>
       </c>
@@ -4246,15 +3657,15 @@
       <c r="D117" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:6">
-      <c r="A118" s="8"/>
+    <row r="118" spans="1:6" ht="15" hidden="1">
+      <c r="A118" s="21"/>
       <c r="B118" s="3" t="s">
         <v>192</v>
       </c>
@@ -4264,255 +3675,255 @@
       <c r="D118" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:6">
-      <c r="A119" s="8"/>
+    <row r="119" spans="1:6" ht="15" hidden="1">
+      <c r="A119" s="21"/>
       <c r="B119" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="15" t="s">
+      <c r="E119" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:6">
-      <c r="A120" s="8"/>
+    <row r="120" spans="1:6" ht="15" hidden="1">
+      <c r="A120" s="21"/>
       <c r="B120" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="E120" s="12" t="s">
         <v>98</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:6">
-      <c r="A121" s="8"/>
+    <row r="121" spans="1:6" ht="15" hidden="1">
+      <c r="A121" s="21"/>
       <c r="B121" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="15" t="s">
+      <c r="E121" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:6">
-      <c r="A122" s="10"/>
+    <row r="122" spans="1:6" ht="15" hidden="1">
+      <c r="A122" s="22"/>
       <c r="B122" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="15" t="s">
+      <c r="E122" s="12" t="s">
         <v>89</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:6">
-      <c r="A123" s="23" t="s">
+    <row r="123" spans="1:6" ht="15" hidden="1">
+      <c r="A123" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E123" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:6">
-      <c r="A124" s="24"/>
-      <c r="B124" s="11" t="s">
+    <row r="124" spans="1:6" ht="15" hidden="1">
+      <c r="A124" s="28"/>
+      <c r="B124" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E124" s="13" t="s">
+      <c r="E124" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:6">
-      <c r="A125" s="24"/>
-      <c r="B125" s="11" t="s">
+    <row r="125" spans="1:6" ht="15" hidden="1">
+      <c r="A125" s="28"/>
+      <c r="B125" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E125" s="13" t="s">
+      <c r="E125" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F125" s="11" t="s">
+      <c r="F125" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:6">
-      <c r="A126" s="24"/>
-      <c r="B126" s="11" t="s">
+    <row r="126" spans="1:6" ht="15" hidden="1">
+      <c r="A126" s="28"/>
+      <c r="B126" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="D126" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="E126" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F126" s="11" t="s">
+      <c r="F126" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:6">
-      <c r="A127" s="24"/>
-      <c r="B127" s="11" t="s">
+    <row r="127" spans="1:6" ht="15" hidden="1">
+      <c r="A127" s="28"/>
+      <c r="B127" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="12" t="s">
+      <c r="D127" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="13" t="s">
+      <c r="E127" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="F127" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:6">
-      <c r="A128" s="24"/>
-      <c r="B128" s="11" t="s">
+    <row r="128" spans="1:6" ht="15" hidden="1">
+      <c r="A128" s="28"/>
+      <c r="B128" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="13" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:6">
-      <c r="A129" s="24"/>
-      <c r="B129" s="11" t="s">
+    <row r="129" spans="1:6" ht="15" hidden="1">
+      <c r="A129" s="28"/>
+      <c r="B129" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="13" t="s">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="F129" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:6">
-      <c r="A130" s="24"/>
-      <c r="B130" s="11" t="s">
+    <row r="130" spans="1:6" ht="15" hidden="1">
+      <c r="A130" s="28"/>
+      <c r="B130" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="13" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:6">
-      <c r="A131" s="24"/>
-      <c r="B131" s="11" t="s">
+    <row r="131" spans="1:6" ht="15" hidden="1">
+      <c r="A131" s="28"/>
+      <c r="B131" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="13" t="s">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:6">
-      <c r="A132" s="24"/>
-      <c r="B132" s="11" t="s">
+    <row r="132" spans="1:6" ht="15" hidden="1">
+      <c r="A132" s="28"/>
+      <c r="B132" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="13" t="s">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="F132" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:6">
-      <c r="A133" s="25"/>
-      <c r="B133" s="11" t="s">
+    <row r="133" spans="1:6" ht="15" hidden="1">
+      <c r="A133" s="29"/>
+      <c r="B133" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="13" t="s">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="F133" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:6">
-      <c r="A134" s="26" t="s">
+    <row r="134" spans="1:6" ht="15" hidden="1">
+      <c r="A134" s="30" t="s">
         <v>205</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -4524,141 +3935,141 @@
       <c r="D134" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="12" t="s">
         <v>144</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:6">
-      <c r="A135" s="27"/>
+    <row r="135" spans="1:6" ht="15" hidden="1">
+      <c r="A135" s="31"/>
       <c r="B135" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="D135" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="E135" s="12" t="s">
         <v>147</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:6">
-      <c r="A136" s="27"/>
+    <row r="136" spans="1:6" ht="15" hidden="1">
+      <c r="A136" s="31"/>
       <c r="B136" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="D136" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E136" s="15" t="s">
+      <c r="E136" s="12" t="s">
         <v>207</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:6">
-      <c r="A137" s="27"/>
+    <row r="137" spans="1:6" ht="15" hidden="1">
+      <c r="A137" s="31"/>
       <c r="B137" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="22" t="s">
+      <c r="E137" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F137" s="21" t="s">
+      <c r="F137" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:6">
-      <c r="A138" s="27"/>
+    <row r="138" spans="1:6" ht="15" hidden="1">
+      <c r="A138" s="31"/>
       <c r="B138" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E138" s="15"/>
+      <c r="E138" s="12"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" hidden="1" spans="1:6">
-      <c r="A139" s="28"/>
+    <row r="139" spans="1:6" ht="15" hidden="1">
+      <c r="A139" s="32"/>
       <c r="B139" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="15"/>
+      <c r="E139" s="12"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" hidden="1" spans="1:6">
-      <c r="A140" s="23" t="s">
+    <row r="140" spans="1:6" hidden="1">
+      <c r="A140" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F140" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:6">
-      <c r="A141" s="24"/>
-      <c r="B141" s="11" t="s">
+    <row r="141" spans="1:6" hidden="1">
+      <c r="A141" s="28"/>
+      <c r="B141" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D141" s="12" t="s">
+      <c r="D141" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-    </row>
-    <row r="142" hidden="1" spans="1:6">
-      <c r="A142" s="24"/>
-      <c r="B142" s="11" t="s">
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" spans="1:6" hidden="1">
+      <c r="A142" s="28"/>
+      <c r="B142" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-    </row>
-    <row r="143" hidden="1" spans="1:6">
-      <c r="A143" s="7" t="s">
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="1:6" hidden="1">
+      <c r="A143" s="20" t="s">
         <v>210</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -4677,8 +4088,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:6">
-      <c r="A144" s="8"/>
+    <row r="144" spans="1:6" hidden="1">
+      <c r="A144" s="21"/>
       <c r="B144" s="3" t="s">
         <v>211</v>
       </c>
@@ -4691,316 +4102,316 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" hidden="1" spans="1:6">
-      <c r="A145" s="8"/>
+    <row r="145" spans="1:6" hidden="1">
+      <c r="A145" s="21"/>
       <c r="B145" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" hidden="1" spans="1:6">
-      <c r="A146" s="8"/>
+    <row r="146" spans="1:6" hidden="1">
+      <c r="A146" s="21"/>
       <c r="B146" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" hidden="1" spans="1:6">
-      <c r="A147" s="23" t="s">
+    <row r="147" spans="1:6" ht="15" hidden="1">
+      <c r="A147" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E147" s="13" t="s">
+      <c r="E147" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:6">
-      <c r="A148" s="24"/>
-      <c r="B148" s="11" t="s">
+    <row r="148" spans="1:6" ht="15" hidden="1">
+      <c r="A148" s="28"/>
+      <c r="B148" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="13" t="s">
+      <c r="E148" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F148" s="11" t="s">
+      <c r="F148" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:6">
-      <c r="A149" s="24"/>
-      <c r="B149" s="11" t="s">
+    <row r="149" spans="1:6" ht="15" hidden="1">
+      <c r="A149" s="28"/>
+      <c r="B149" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E149" s="13" t="s">
+      <c r="E149" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="F149" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:6">
-      <c r="A150" s="24"/>
-      <c r="B150" s="11" t="s">
+    <row r="150" spans="1:6" ht="15" hidden="1">
+      <c r="A150" s="28"/>
+      <c r="B150" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="13" t="s">
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F150" s="11" t="s">
+      <c r="F150" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:6">
-      <c r="A151" s="24"/>
-      <c r="B151" s="11" t="s">
+    <row r="151" spans="1:6" ht="15" hidden="1">
+      <c r="A151" s="28"/>
+      <c r="B151" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="13" t="s">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F151" s="11" t="s">
+      <c r="F151" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:6">
-      <c r="A152" s="24"/>
-      <c r="B152" s="11" t="s">
+    <row r="152" spans="1:6" ht="15" hidden="1">
+      <c r="A152" s="28"/>
+      <c r="B152" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="13" t="s">
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F152" s="11" t="s">
+      <c r="F152" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:6">
-      <c r="A153" s="24"/>
-      <c r="B153" s="11" t="s">
+    <row r="153" spans="1:6" ht="15" hidden="1">
+      <c r="A153" s="28"/>
+      <c r="B153" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="22" t="s">
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F153" s="21" t="s">
+      <c r="F153" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:6">
-      <c r="A154" s="24"/>
-      <c r="B154" s="11" t="s">
+    <row r="154" spans="1:6" ht="15" hidden="1">
+      <c r="A154" s="28"/>
+      <c r="B154" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="13" t="s">
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:6">
-      <c r="A155" s="24"/>
-      <c r="B155" s="11" t="s">
+    <row r="155" spans="1:6" ht="15" hidden="1">
+      <c r="A155" s="28"/>
+      <c r="B155" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="13" t="s">
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F155" s="11" t="s">
+      <c r="F155" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:6">
-      <c r="A156" s="24"/>
-      <c r="B156" s="11" t="s">
+    <row r="156" spans="1:6" ht="15" hidden="1">
+      <c r="A156" s="28"/>
+      <c r="B156" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="13" t="s">
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F156" s="11" t="s">
+      <c r="F156" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:6">
-      <c r="A157" s="24"/>
-      <c r="B157" s="11" t="s">
+    <row r="157" spans="1:6" ht="15" hidden="1">
+      <c r="A157" s="28"/>
+      <c r="B157" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="13" t="s">
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F157" s="11" t="s">
+      <c r="F157" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:6">
-      <c r="A158" s="24"/>
-      <c r="B158" s="11" t="s">
+    <row r="158" spans="1:6" ht="15" hidden="1">
+      <c r="A158" s="28"/>
+      <c r="B158" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="13" t="s">
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F158" s="11" t="s">
+      <c r="F158" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:6">
-      <c r="A159" s="24"/>
-      <c r="B159" s="11" t="s">
+    <row r="159" spans="1:6" ht="15" hidden="1">
+      <c r="A159" s="28"/>
+      <c r="B159" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="13" t="s">
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F159" s="11" t="s">
+      <c r="F159" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:6">
-      <c r="A160" s="24"/>
-      <c r="B160" s="11" t="s">
+    <row r="160" spans="1:6" ht="15" hidden="1">
+      <c r="A160" s="28"/>
+      <c r="B160" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="13" t="s">
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F160" s="11" t="s">
+      <c r="F160" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:6">
-      <c r="A161" s="24"/>
-      <c r="B161" s="11" t="s">
+    <row r="161" spans="1:6" ht="15" hidden="1">
+      <c r="A161" s="28"/>
+      <c r="B161" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="13" t="s">
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F161" s="11" t="s">
+      <c r="F161" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:6">
-      <c r="A162" s="24"/>
-      <c r="B162" s="11" t="s">
+    <row r="162" spans="1:6" ht="15" hidden="1">
+      <c r="A162" s="28"/>
+      <c r="B162" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="13" t="s">
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F162" s="11" t="s">
+      <c r="F162" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:6">
-      <c r="A163" s="24"/>
-      <c r="B163" s="11" t="s">
+    <row r="163" spans="1:6" ht="15" hidden="1">
+      <c r="A163" s="28"/>
+      <c r="B163" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="13" t="s">
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F163" s="11" t="s">
+      <c r="F163" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:6">
-      <c r="A164" s="24"/>
-      <c r="B164" s="11" t="s">
+    <row r="164" spans="1:6" ht="15" hidden="1">
+      <c r="A164" s="28"/>
+      <c r="B164" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="13" t="s">
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F164" s="11" t="s">
+      <c r="F164" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:6">
-      <c r="A165" s="25"/>
-      <c r="B165" s="11" t="s">
+    <row r="165" spans="1:6" ht="15" hidden="1">
+      <c r="A165" s="29"/>
+      <c r="B165" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="22" t="s">
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F165" s="21" t="s">
+      <c r="F165" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:6">
-      <c r="A166" s="7" t="s">
+    <row r="166" spans="1:6" hidden="1">
+      <c r="A166" s="20" t="s">
         <v>238</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -5019,8 +4430,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:6">
-      <c r="A167" s="8"/>
+    <row r="167" spans="1:6" hidden="1">
+      <c r="A167" s="21"/>
       <c r="B167" s="3" t="s">
         <v>239</v>
       </c>
@@ -5033,8 +4444,8 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" hidden="1" spans="1:6">
-      <c r="A168" s="8"/>
+    <row r="168" spans="1:6" hidden="1">
+      <c r="A168" s="21"/>
       <c r="B168" s="3" t="s">
         <v>239</v>
       </c>
@@ -5047,8 +4458,8 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" hidden="1" spans="1:6">
-      <c r="A169" s="8"/>
+    <row r="169" spans="1:6" hidden="1">
+      <c r="A169" s="21"/>
       <c r="B169" s="3" t="s">
         <v>239</v>
       </c>
@@ -5061,138 +4472,138 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" hidden="1" spans="1:6">
-      <c r="A170" s="8"/>
+    <row r="170" spans="1:6" hidden="1">
+      <c r="A170" s="21"/>
       <c r="B170" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" hidden="1" spans="1:6">
-      <c r="A171" s="10"/>
+    <row r="171" spans="1:6" hidden="1">
+      <c r="A171" s="22"/>
       <c r="B171" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" hidden="1" spans="1:6">
-      <c r="A172" s="11" t="s">
+    <row r="172" spans="1:6" hidden="1">
+      <c r="A172" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B172" s="29" t="s">
+      <c r="B172" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F172" s="11" t="s">
+      <c r="F172" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:6">
-      <c r="A173" s="11"/>
-      <c r="B173" s="29" t="s">
+    <row r="173" spans="1:6" hidden="1">
+      <c r="A173" s="23"/>
+      <c r="B173" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D173" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E173" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F173" s="11" t="s">
+      <c r="F173" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:6">
-      <c r="A174" s="11"/>
-      <c r="B174" s="29" t="s">
+    <row r="174" spans="1:6" hidden="1">
+      <c r="A174" s="23"/>
+      <c r="B174" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F174" s="11" t="s">
+      <c r="F174" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:6">
-      <c r="A175" s="11"/>
-      <c r="B175" s="29" t="s">
+    <row r="175" spans="1:6" hidden="1">
+      <c r="A175" s="23"/>
+      <c r="B175" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C175" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="D175" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="F175" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:6">
-      <c r="A176" s="11"/>
-      <c r="B176" s="29" t="s">
+    <row r="176" spans="1:6" hidden="1">
+      <c r="A176" s="23"/>
+      <c r="B176" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11" t="s">
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F176" s="11" t="s">
+      <c r="F176" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:6">
-      <c r="A177" s="11"/>
-      <c r="B177" s="29" t="s">
+    <row r="177" spans="1:6" hidden="1">
+      <c r="A177" s="23"/>
+      <c r="B177" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11" t="s">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F177" s="11" t="s">
+      <c r="F177" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:6">
-      <c r="A178" s="7" t="s">
+    <row r="178" spans="1:6" hidden="1">
+      <c r="A178" s="20" t="s">
         <v>251</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -5211,8 +4622,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:6">
-      <c r="A179" s="8"/>
+    <row r="179" spans="1:6" hidden="1">
+      <c r="A179" s="21"/>
       <c r="B179" s="3" t="s">
         <v>252</v>
       </c>
@@ -5223,14 +4634,14 @@
         <v>11</v>
       </c>
       <c r="E179" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F179" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="180" hidden="1" spans="1:6">
-      <c r="A180" s="8"/>
+    </row>
+    <row r="180" spans="1:6" hidden="1">
+      <c r="A180" s="21"/>
       <c r="B180" s="3" t="s">
         <v>252</v>
       </c>
@@ -5241,404 +4652,404 @@
         <v>21</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>255</v>
+        <v>364</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:6">
-      <c r="A181" s="8"/>
+    <row r="181" spans="1:6" hidden="1">
+      <c r="A181" s="21"/>
       <c r="B181" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>114</v>
+        <v>365</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="182" hidden="1" spans="1:6">
-      <c r="A182" s="8"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1">
+      <c r="A182" s="21"/>
       <c r="B182" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>257</v>
+        <v>366</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="183" hidden="1" spans="1:6">
-      <c r="A183" s="8"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1">
+      <c r="A183" s="21"/>
       <c r="B183" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="184" hidden="1" spans="1:6">
-      <c r="A184" s="8"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1">
+      <c r="A184" s="21"/>
       <c r="B184" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:6">
-      <c r="A185" s="8"/>
+    <row r="185" spans="1:6" hidden="1">
+      <c r="A185" s="21"/>
       <c r="B185" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="186" hidden="1" spans="1:6">
-      <c r="A186" s="8"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1">
+      <c r="A186" s="21"/>
       <c r="B186" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="187" hidden="1" spans="1:6">
-      <c r="A187" s="10"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" hidden="1">
+      <c r="A187" s="22"/>
       <c r="B187" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15" hidden="1">
+      <c r="A188" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E188" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F188" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="19" t="s">
+    <row r="189" spans="1:6" ht="15" hidden="1">
+      <c r="A189" s="26"/>
+      <c r="B189" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15" hidden="1">
+      <c r="A190" s="26"/>
+      <c r="B190" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15" hidden="1">
+      <c r="A191" s="26"/>
+      <c r="B191" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="F191" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C188" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E188" s="13" t="s">
+    </row>
+    <row r="192" spans="1:6" ht="15" hidden="1">
+      <c r="A192" s="26"/>
+      <c r="B192" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F188" s="11" t="s">
+      <c r="F192" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="20"/>
-      <c r="B189" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E189" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="20"/>
-      <c r="B190" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C190" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E190" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="20"/>
-      <c r="B191" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C191" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" s="14" t="s">
+    <row r="193" spans="1:6" ht="15" hidden="1">
+      <c r="A193" s="26"/>
+      <c r="B193" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F193" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F191" s="12" t="s">
+    </row>
+    <row r="194" spans="1:6" ht="15" hidden="1">
+      <c r="A194" s="26"/>
+      <c r="B194" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="20"/>
-      <c r="B192" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="14" t="s">
+      <c r="F194" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="F192" s="12" t="s">
+    </row>
+    <row r="195" spans="1:6" ht="15" hidden="1">
+      <c r="A195" s="26"/>
+      <c r="B195" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="20"/>
-      <c r="B193" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="14" t="s">
+      <c r="F195" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15" hidden="1">
+      <c r="A196" s="26"/>
+      <c r="B196" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15" hidden="1">
+      <c r="A197" s="26"/>
+      <c r="B197" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15" hidden="1">
+      <c r="A198" s="26"/>
+      <c r="B198" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15" hidden="1">
+      <c r="A199" s="26"/>
+      <c r="B199" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15" hidden="1">
+      <c r="A200" s="26"/>
+      <c r="B200" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15" hidden="1">
+      <c r="A201" s="26"/>
+      <c r="B201" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15" hidden="1">
+      <c r="A202" s="26"/>
+      <c r="B202" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15" hidden="1">
+      <c r="A203" s="26"/>
+      <c r="B203" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15" hidden="1">
+      <c r="A204" s="26"/>
+      <c r="B204" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15" hidden="1">
+      <c r="A205" s="26"/>
+      <c r="B205" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15" hidden="1">
+      <c r="A206" s="26"/>
+      <c r="B206" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F193" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="20"/>
-      <c r="B194" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="F194" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="20"/>
-      <c r="B195" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F195" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="20"/>
-      <c r="B196" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="20"/>
-      <c r="B197" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="20"/>
-      <c r="B198" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="20"/>
-      <c r="B199" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="20"/>
-      <c r="B200" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="20"/>
-      <c r="B201" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="20"/>
-      <c r="B202" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="20"/>
-      <c r="B203" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="F203" s="11" t="s">
+      <c r="F206" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="20" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="20"/>
-      <c r="B204" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="14" t="s">
+      <c r="B207" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="F204" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="20"/>
-      <c r="B205" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="20"/>
-      <c r="B206" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F206" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="207" hidden="1" spans="1:6">
-      <c r="A207" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>8</v>
@@ -5650,13 +5061,13 @@
         <v>102</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="208" hidden="1" spans="1:6">
-      <c r="A208" s="8"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="21"/>
       <c r="B208" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>10</v>
@@ -5665,52 +5076,52 @@
         <v>11</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="209" hidden="1" spans="1:6">
-      <c r="A209" s="8"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="21"/>
       <c r="B209" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="210" hidden="1" spans="1:6">
-      <c r="A210" s="8"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="21"/>
       <c r="B210" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="211" hidden="1" spans="1:6">
-      <c r="A211" s="8"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="21"/>
       <c r="B211" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>20</v>
@@ -5722,176 +5133,176 @@
         <v>189</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="212" hidden="1" spans="1:6">
-      <c r="A212" s="8"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="21"/>
       <c r="B212" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C212" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C212" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="213" hidden="1" spans="1:6">
-      <c r="A213" s="8"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="21"/>
       <c r="B213" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="214" hidden="1" spans="1:6">
-      <c r="A214" s="8"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="21"/>
       <c r="B214" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="215" hidden="1" spans="1:6">
-      <c r="A215" s="8"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="21"/>
       <c r="B215" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="216" hidden="1" spans="1:6">
-      <c r="A216" s="10"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="22"/>
       <c r="B216" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" hidden="1">
+      <c r="A217" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E217" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="F217" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1">
+      <c r="A218" s="28"/>
+      <c r="B218" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" hidden="1">
+      <c r="A219" s="28"/>
+      <c r="B219" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1">
+      <c r="A220" s="28"/>
+      <c r="B220" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" spans="1:6" hidden="1">
+      <c r="A221" s="29"/>
+      <c r="B221" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="217" hidden="1" spans="1:6">
-      <c r="A217" s="23" t="s">
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+    </row>
+    <row r="222" spans="1:6" hidden="1">
+      <c r="A222" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B222" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C217" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E217" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="218" hidden="1" spans="1:6">
-      <c r="A218" s="24"/>
-      <c r="B218" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E218" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F218" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="219" hidden="1" spans="1:6">
-      <c r="A219" s="24"/>
-      <c r="B219" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C219" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E219" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F219" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="220" hidden="1" spans="1:6">
-      <c r="A220" s="24"/>
-      <c r="B220" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C220" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D220" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E220" s="11"/>
-      <c r="F220" s="11"/>
-    </row>
-    <row r="221" hidden="1" spans="1:6">
-      <c r="A221" s="25"/>
-      <c r="B221" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C221" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D221" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="E221" s="11"/>
-      <c r="F221" s="11"/>
-    </row>
-    <row r="222" hidden="1" spans="1:6">
-      <c r="A222" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="C222" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>145</v>
@@ -5900,27 +5311,27 @@
         <v>89</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="223" hidden="1" spans="1:6">
-      <c r="A223" s="8"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1">
+      <c r="A223" s="21"/>
       <c r="B223" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C223" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C223" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D223" s="9" t="s">
+      <c r="D223" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" hidden="1" spans="1:6">
-      <c r="A224" s="10"/>
+    <row r="224" spans="1:6" hidden="1">
+      <c r="A224" s="22"/>
       <c r="B224" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>20</v>
@@ -5931,64 +5342,64 @@
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" hidden="1" spans="1:6">
-      <c r="A225" s="24" t="s">
+    <row r="225" spans="1:6" hidden="1">
+      <c r="A225" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D225" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" hidden="1">
+      <c r="A226" s="28"/>
+      <c r="B226" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" hidden="1">
+      <c r="A227" s="29"/>
+      <c r="B227" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227" s="8"/>
+      <c r="F227" s="8"/>
+    </row>
+    <row r="228" spans="1:6" hidden="1">
+      <c r="A228" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="B225" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C225" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D225" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E225" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F225" s="11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="226" hidden="1" spans="1:6">
-      <c r="A226" s="24"/>
-      <c r="B226" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C226" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D226" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F226" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="227" hidden="1" spans="1:6">
-      <c r="A227" s="25"/>
-      <c r="B227" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D227" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E227" s="11"/>
-      <c r="F227" s="11"/>
-    </row>
-    <row r="228" hidden="1" spans="1:6">
-      <c r="A228" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>8</v>
@@ -6003,10 +5414,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:6">
-      <c r="A229" s="8"/>
+    <row r="229" spans="1:6" hidden="1">
+      <c r="A229" s="21"/>
       <c r="B229" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>10</v>
@@ -6021,15 +5432,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:6">
-      <c r="A230" s="8"/>
+    <row r="230" spans="1:6" hidden="1">
+      <c r="A230" s="21"/>
       <c r="B230" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C230" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C230" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D230" s="9" t="s">
+      <c r="D230" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -6039,10 +5450,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:6">
-      <c r="A231" s="8"/>
+    <row r="231" spans="1:6" hidden="1">
+      <c r="A231" s="21"/>
       <c r="B231" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>20</v>
@@ -6053,91 +5464,91 @@
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" hidden="1" spans="1:6">
-      <c r="A232" s="8"/>
+    <row r="232" spans="1:6" hidden="1">
+      <c r="A232" s="21"/>
       <c r="B232" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C232" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C232" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D232" s="21" t="s">
-        <v>316</v>
+      <c r="D232" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" hidden="1" spans="1:6">
-      <c r="A233" s="23" t="s">
+    <row r="233" spans="1:6" hidden="1">
+      <c r="A233" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" hidden="1">
+      <c r="A234" s="28"/>
+      <c r="B234" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="F234" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C233" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D233" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E233" s="11" t="s">
+    </row>
+    <row r="235" spans="1:6" hidden="1">
+      <c r="A235" s="28"/>
+      <c r="B235" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F233" s="11" t="s">
+      <c r="F235" s="8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:6">
-      <c r="A234" s="24"/>
-      <c r="B234" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C234" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E234" s="11" t="s">
+    <row r="236" spans="1:6" hidden="1">
+      <c r="A236" s="28"/>
+      <c r="B236" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+    </row>
+    <row r="237" spans="1:6" hidden="1">
+      <c r="A237" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="F234" s="11" t="s">
+      <c r="B237" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="235" hidden="1" spans="1:6">
-      <c r="A235" s="24"/>
-      <c r="B235" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="236" hidden="1" spans="1:6">
-      <c r="A236" s="24"/>
-      <c r="B236" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="11"/>
-      <c r="F236" s="11"/>
-    </row>
-    <row r="237" hidden="1" spans="1:6">
-      <c r="A237" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="C237" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>145</v>
@@ -6146,27 +5557,27 @@
         <v>89</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="238" hidden="1" spans="1:6">
-      <c r="A238" s="8"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" hidden="1">
+      <c r="A238" s="21"/>
       <c r="B238" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C238" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C238" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" hidden="1" spans="1:6">
-      <c r="A239" s="10"/>
+    <row r="239" spans="1:6" hidden="1">
+      <c r="A239" s="22"/>
       <c r="B239" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>20</v>
@@ -6177,60 +5588,60 @@
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" hidden="1" spans="1:6">
-      <c r="A240" s="30" t="s">
+    <row r="240" spans="1:6" hidden="1">
+      <c r="A240" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F240" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B240" s="11" t="s">
+    </row>
+    <row r="241" spans="1:6" hidden="1">
+      <c r="A241" s="34"/>
+      <c r="B241" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+    </row>
+    <row r="242" spans="1:6" hidden="1">
+      <c r="A242" s="35"/>
+      <c r="B242" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E242" s="8"/>
+      <c r="F242" s="8"/>
+    </row>
+    <row r="243" spans="1:6" hidden="1">
+      <c r="A243" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="B243" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="D240" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="241" hidden="1" spans="1:6">
-      <c r="A241" s="31"/>
-      <c r="B241" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C241" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D241" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E241" s="11"/>
-      <c r="F241" s="11"/>
-    </row>
-    <row r="242" hidden="1" spans="1:6">
-      <c r="A242" s="32"/>
-      <c r="B242" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E242" s="11"/>
-      <c r="F242" s="11"/>
-    </row>
-    <row r="243" hidden="1" spans="1:6">
-      <c r="A243" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>8</v>
@@ -6239,16 +5650,16 @@
         <v>163</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="244" hidden="1" spans="1:6">
-      <c r="A244" s="8"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" hidden="1">
+      <c r="A244" s="21"/>
       <c r="B244" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>20</v>
@@ -6257,62 +5668,62 @@
         <v>21</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="245" hidden="1" spans="1:6">
-      <c r="A245" s="8"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" hidden="1">
+      <c r="A245" s="21"/>
       <c r="B245" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C245" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C245" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D245" s="9" t="s">
+      <c r="D245" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E245" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F245" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="246" hidden="1" spans="1:6">
-      <c r="A246" s="8"/>
+      <c r="E245" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" hidden="1">
+      <c r="A246" s="21"/>
       <c r="B246" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
-      <c r="E246" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F246" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="247" hidden="1" spans="1:6">
-      <c r="A247" s="8"/>
+      <c r="E246" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" hidden="1">
+      <c r="A247" s="21"/>
       <c r="B247" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="248" hidden="1" spans="1:6">
-      <c r="A248" s="8"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" hidden="1">
+      <c r="A248" s="21"/>
       <c r="B248" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -6323,10 +5734,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:6">
-      <c r="A249" s="8"/>
+    <row r="249" spans="1:6" hidden="1">
+      <c r="A249" s="21"/>
       <c r="B249" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -6334,13 +5745,13 @@
         <v>164</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="250" hidden="1" spans="1:6">
-      <c r="A250" s="8"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" hidden="1">
+      <c r="A250" s="21"/>
       <c r="B250" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -6351,10 +5762,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:6">
-      <c r="A251" s="10"/>
+    <row r="251" spans="1:6" hidden="1">
+      <c r="A251" s="22"/>
       <c r="B251" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -6362,161 +5773,160 @@
         <v>167</v>
       </c>
       <c r="F251" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" hidden="1">
+      <c r="A252" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E252" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="F252" s="19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:6">
-      <c r="A252" s="33" t="s">
+    <row r="253" spans="1:6" hidden="1">
+      <c r="A253" s="37"/>
+      <c r="B253" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="34" t="s">
+      <c r="F253" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" hidden="1">
+      <c r="A254" s="37"/>
+      <c r="B254" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E254" s="19"/>
+      <c r="F254" s="19"/>
+    </row>
+    <row r="255" spans="1:6" hidden="1">
+      <c r="A255" s="37"/>
+      <c r="B255" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C255" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" s="19"/>
+      <c r="F255" s="19"/>
+    </row>
+    <row r="256" spans="1:6" hidden="1">
+      <c r="A256" s="37"/>
+      <c r="B256" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="C252" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D252" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E252" s="34" t="s">
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+    </row>
+    <row r="257" spans="1:6" hidden="1">
+      <c r="A257" s="38"/>
+      <c r="B257" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C257" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="F252" s="34" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="253" hidden="1" spans="1:6">
-      <c r="A253" s="35"/>
-      <c r="B253" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C253" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D253" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E253" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="F253" s="34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="254" hidden="1" spans="1:6">
-      <c r="A254" s="35"/>
-      <c r="B254" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C254" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E254" s="34"/>
-      <c r="F254" s="34"/>
-    </row>
-    <row r="255" hidden="1" spans="1:6">
-      <c r="A255" s="35"/>
-      <c r="B255" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C255" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E255" s="34"/>
-      <c r="F255" s="34"/>
-    </row>
-    <row r="256" hidden="1" spans="1:6">
-      <c r="A256" s="35"/>
-      <c r="B256" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C256" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="E256" s="11"/>
-      <c r="F256" s="11"/>
-    </row>
-    <row r="257" hidden="1" spans="1:6">
-      <c r="A257" s="36"/>
-      <c r="B257" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C257" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D257" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="E257" s="11"/>
-      <c r="F257" s="11"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F257">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="直播列表"/>
-      </customFilters>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="back2/report/index"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="A243:A251"/>
+    <mergeCell ref="A252:A257"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A178:A187"/>
+    <mergeCell ref="A188:A206"/>
+    <mergeCell ref="A207:A216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A165"/>
+    <mergeCell ref="A166:A171"/>
+    <mergeCell ref="A172:A177"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="A69:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A93:A99"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A51:A59"/>
-    <mergeCell ref="A60:A68"/>
-    <mergeCell ref="A69:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A165"/>
-    <mergeCell ref="A166:A171"/>
-    <mergeCell ref="A172:A177"/>
-    <mergeCell ref="A178:A187"/>
-    <mergeCell ref="A188:A206"/>
-    <mergeCell ref="A207:A216"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A232"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A243:A251"/>
-    <mergeCell ref="A252:A257"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -6524,94 +5934,93 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/doc/后台接口整理.xlsx
+++ b/doc/后台接口整理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="已做完的接口" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
   <si>
     <t>需求名称</t>
   </si>
@@ -780,9 +780,15 @@
     <t>back2/livehistory/index</t>
   </si>
   <si>
+    <t>starttime</t>
+  </si>
+  <si>
     <t>开播时间</t>
   </si>
   <si>
+    <t>endtime</t>
+  </si>
+  <si>
     <t>直播收益</t>
   </si>
   <si>
@@ -798,7 +804,13 @@
     <t>点赞数</t>
   </si>
   <si>
+    <t>room_name</t>
+  </si>
+  <si>
     <t>房间名称</t>
+  </si>
+  <si>
+    <t>push</t>
   </si>
   <si>
     <t>推流地址</t>
@@ -1109,49 +1121,19 @@
   </si>
   <si>
     <t>奖励管理</t>
-  </si>
-  <si>
-    <t>starttime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>endtime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>kubi</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>praise</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>push</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>pull</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,13 +1184,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,19 +1337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,8 +1359,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1313,13 +1601,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,9 +1871,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,66 +1910,51 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,10 +1962,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1732,23 +2303,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G85" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B213" sqref="B213"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="36" style="5" customWidth="1"/>
@@ -1778,8 +2349,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1794,8 +2365,8 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" hidden="1">
-      <c r="A3" s="21"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1808,8 +2379,8 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" hidden="1">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1822,8 +2393,8 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" hidden="1">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1836,8 +2407,8 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" hidden="1">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1850,410 +2421,410 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" hidden="1">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" hidden="1">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" hidden="1">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" hidden="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" hidden="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" hidden="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" hidden="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" hidden="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" hidden="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" hidden="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="11" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" hidden="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" hidden="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" hidden="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" hidden="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" hidden="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" hidden="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" hidden="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" hidden="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" hidden="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" hidden="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" hidden="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" hidden="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" hidden="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" hidden="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" hidden="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" hidden="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" hidden="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" hidden="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" hidden="1">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2265,15 +2836,15 @@
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="15" t="s">
         <v>78</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" hidden="1">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
@@ -2283,15 +2854,15 @@
       <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" hidden="1">
-      <c r="A37" s="24"/>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>77</v>
       </c>
@@ -2301,15 +2872,15 @@
       <c r="D37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="15" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" hidden="1">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>77</v>
       </c>
@@ -2319,15 +2890,15 @@
       <c r="D38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="15" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" hidden="1">
-      <c r="A39" s="24"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
@@ -2337,15 +2908,15 @@
       <c r="D39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" hidden="1">
-      <c r="A40" s="24"/>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
@@ -2355,193 +2926,193 @@
       <c r="D40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="15" t="s">
         <v>89</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" hidden="1">
-      <c r="A41" s="24"/>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="15" t="s">
         <v>92</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" hidden="1">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15" hidden="1">
-      <c r="A43" s="23" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" hidden="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" hidden="1">
-      <c r="A45" s="23"/>
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" hidden="1">
-      <c r="A46" s="23"/>
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" hidden="1">
-      <c r="A47" s="23"/>
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" hidden="1">
-      <c r="A48" s="23"/>
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" hidden="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="8" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" hidden="1">
-      <c r="A50" s="23"/>
-      <c r="B50" s="8" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" hidden="1">
-      <c r="A51" s="24" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2553,15 +3124,15 @@
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" hidden="1">
-      <c r="A52" s="24"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>101</v>
       </c>
@@ -2571,15 +3142,15 @@
       <c r="D52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="15" t="s">
         <v>78</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" hidden="1">
-      <c r="A53" s="24"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>101</v>
       </c>
@@ -2589,15 +3160,15 @@
       <c r="D53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="15" t="s">
         <v>104</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" hidden="1">
-      <c r="A54" s="24"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>101</v>
       </c>
@@ -2607,15 +3178,15 @@
       <c r="D54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="15" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" hidden="1">
-      <c r="A55" s="24"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>101</v>
       </c>
@@ -2625,15 +3196,15 @@
       <c r="D55" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="15" t="s">
         <v>107</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" hidden="1">
-      <c r="A56" s="24"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>101</v>
       </c>
@@ -2643,225 +3214,225 @@
       <c r="D56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="15" t="s">
         <v>110</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" hidden="1">
-      <c r="A57" s="24"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="15" t="s">
         <v>112</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" hidden="1">
-      <c r="A58" s="24"/>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" hidden="1">
-      <c r="A59" s="24"/>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="15" t="s">
         <v>114</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" hidden="1">
-      <c r="A60" s="23" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" hidden="1">
-      <c r="A61" s="23"/>
-      <c r="B61" s="8" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" hidden="1">
-      <c r="A62" s="23"/>
-      <c r="B62" s="8" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" hidden="1">
-      <c r="A63" s="23"/>
-      <c r="B63" s="8" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" hidden="1">
-      <c r="A64" s="23"/>
-      <c r="B64" s="8" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" hidden="1">
-      <c r="A65" s="23"/>
-      <c r="B65" s="8" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" hidden="1">
-      <c r="A66" s="23"/>
-      <c r="B66" s="8" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" hidden="1">
-      <c r="A67" s="23"/>
-      <c r="B67" s="8" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" hidden="1">
-      <c r="A68" s="23"/>
-      <c r="B68" s="8" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="10" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" hidden="1">
-      <c r="A69" s="24" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2873,15 +3444,15 @@
       <c r="D69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="15" t="s">
         <v>120</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" hidden="1">
-      <c r="A70" s="24"/>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>119</v>
       </c>
@@ -2891,15 +3462,15 @@
       <c r="D70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" hidden="1">
-      <c r="A71" s="24"/>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>119</v>
       </c>
@@ -2909,15 +3480,15 @@
       <c r="D71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="15" t="s">
         <v>124</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" hidden="1">
-      <c r="A72" s="24"/>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>119</v>
       </c>
@@ -2927,15 +3498,15 @@
       <c r="D72" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="15" t="s">
         <v>126</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" hidden="1">
-      <c r="A73" s="24"/>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>119</v>
       </c>
@@ -2945,195 +3516,195 @@
       <c r="D73" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="15" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" hidden="1">
-      <c r="A74" s="24"/>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="15" t="s">
         <v>130</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" hidden="1">
-      <c r="A75" s="24"/>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="15" t="s">
         <v>132</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" hidden="1">
-      <c r="A76" s="24"/>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="15" t="s">
         <v>134</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" hidden="1">
-      <c r="A77" s="24"/>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="15" t="s">
         <v>136</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" hidden="1">
-      <c r="A78" s="24"/>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="15" t="s">
         <v>138</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" hidden="1">
-      <c r="A79" s="24"/>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="15" t="s">
         <v>140</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" hidden="1">
-      <c r="A80" s="23" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" hidden="1">
-      <c r="A81" s="23"/>
-      <c r="B81" s="8" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" hidden="1">
-      <c r="A82" s="23"/>
-      <c r="B82" s="8" t="s">
+    <row r="82" spans="1:6">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" hidden="1">
-      <c r="A83" s="23"/>
-      <c r="B83" s="8" t="s">
+    <row r="83" spans="1:6">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" hidden="1">
-      <c r="A84" s="23"/>
-      <c r="B84" s="8" t="s">
+    <row r="84" spans="1:6">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="10" t="s">
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" hidden="1">
-      <c r="A85" s="24" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -3145,15 +3716,15 @@
       <c r="D85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" hidden="1">
-      <c r="A86" s="24"/>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>154</v>
       </c>
@@ -3163,223 +3734,227 @@
       <c r="D86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" hidden="1">
-      <c r="A87" s="24"/>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="15" t="s">
         <v>147</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" hidden="1">
-      <c r="A88" s="24"/>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="15" t="s">
         <v>149</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" hidden="1">
-      <c r="A89" s="24"/>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="12" t="s">
+      <c r="C89" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>151</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" hidden="1">
-      <c r="A90" s="24"/>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="15" t="s">
         <v>48</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" hidden="1">
-      <c r="A91" s="24"/>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="15" t="s">
         <v>156</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" hidden="1">
-      <c r="A92" s="24"/>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="15" t="s">
         <v>158</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" hidden="1">
-      <c r="A93" s="25" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" hidden="1">
-      <c r="A94" s="26"/>
-      <c r="B94" s="8" t="s">
+    <row r="94" spans="1:6">
+      <c r="A94" s="21"/>
+      <c r="B94" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="E94" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" hidden="1">
-      <c r="A95" s="26"/>
-      <c r="B95" s="8" t="s">
+    <row r="95" spans="1:6">
+      <c r="A95" s="21"/>
+      <c r="B95" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" hidden="1">
-      <c r="A96" s="26"/>
-      <c r="B96" s="8" t="s">
+    <row r="96" spans="1:6">
+      <c r="A96" s="21"/>
+      <c r="B96" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" hidden="1">
-      <c r="A97" s="26"/>
-      <c r="B97" s="8" t="s">
+    <row r="97" spans="1:6">
+      <c r="A97" s="21"/>
+      <c r="B97" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" hidden="1">
-      <c r="A98" s="26"/>
-      <c r="B98" s="8" t="s">
+    <row r="98" spans="1:6">
+      <c r="A98" s="21"/>
+      <c r="B98" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="17" t="s">
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" hidden="1">
-      <c r="A99" s="26"/>
-      <c r="B99" s="8" t="s">
+    <row r="99" spans="1:6">
+      <c r="A99" s="21"/>
+      <c r="B99" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:6" ht="15" hidden="1">
-      <c r="A100" s="20" t="s">
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -3391,225 +3966,225 @@
       <c r="D100" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" hidden="1">
-      <c r="A101" s="21"/>
+    <row r="101" spans="1:6">
+      <c r="A101" s="8"/>
       <c r="B101" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="15" t="s">
         <v>172</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" hidden="1">
-      <c r="A102" s="21"/>
+    <row r="102" spans="1:6">
+      <c r="A102" s="8"/>
       <c r="B102" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="15" t="s">
         <v>147</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" hidden="1">
-      <c r="A103" s="21"/>
+    <row r="103" spans="1:6">
+      <c r="A103" s="8"/>
       <c r="B103" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" hidden="1">
-      <c r="A104" s="21"/>
+    <row r="104" spans="1:6">
+      <c r="A104" s="8"/>
       <c r="B104" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="15" t="s">
         <v>174</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" hidden="1">
-      <c r="A105" s="21"/>
+    <row r="105" spans="1:6">
+      <c r="A105" s="8"/>
       <c r="B105" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="15" t="s">
         <v>176</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" hidden="1">
-      <c r="A106" s="21"/>
+    <row r="106" spans="1:6">
+      <c r="A106" s="8"/>
       <c r="B106" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" hidden="1">
-      <c r="A107" s="21"/>
+    <row r="107" spans="1:6">
+      <c r="A107" s="8"/>
       <c r="B107" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="15" t="s">
         <v>180</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" hidden="1">
-      <c r="A108" s="22"/>
+    <row r="108" spans="1:6">
+      <c r="A108" s="10"/>
       <c r="B108" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="15" t="s">
         <v>182</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
-      <c r="A109" s="27" t="s">
+    <row r="109" spans="1:6">
+      <c r="A109" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
-      <c r="A110" s="28"/>
-      <c r="B110" s="8" t="s">
+    <row r="110" spans="1:6">
+      <c r="A110" s="24"/>
+      <c r="B110" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-    </row>
-    <row r="111" spans="1:6" hidden="1">
-      <c r="A111" s="28"/>
-      <c r="B111" s="8" t="s">
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="24"/>
+      <c r="B111" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-    </row>
-    <row r="112" spans="1:6" hidden="1">
-      <c r="A112" s="28"/>
-      <c r="B112" s="8" t="s">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="24"/>
+      <c r="B112" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-    </row>
-    <row r="113" spans="1:6" hidden="1">
-      <c r="A113" s="28"/>
-      <c r="B113" s="8" t="s">
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="24"/>
+      <c r="B113" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="1:6" hidden="1">
-      <c r="A114" s="28"/>
-      <c r="B114" s="8" t="s">
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="24"/>
+      <c r="B114" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="1:6" ht="15" hidden="1">
-      <c r="A115" s="20" t="s">
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -3621,309 +4196,297 @@
       <c r="D115" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" hidden="1">
-      <c r="A116" s="21"/>
+    <row r="116" spans="1:6">
+      <c r="A116" s="8"/>
       <c r="B116" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E116" s="12" t="s">
+      <c r="C116" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="15" t="s">
         <v>78</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" hidden="1">
-      <c r="A117" s="21"/>
+    <row r="117" spans="1:6">
+      <c r="A117" s="8"/>
       <c r="B117" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E117" s="12" t="s">
+      <c r="C117" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>82</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" hidden="1">
-      <c r="A118" s="21"/>
+    <row r="118" spans="1:6">
+      <c r="A118" s="8"/>
       <c r="B118" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E118" s="12" t="s">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" hidden="1">
-      <c r="A119" s="21"/>
+    <row r="119" spans="1:6">
+      <c r="A119" s="8"/>
       <c r="B119" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E119" s="12" t="s">
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="15" t="s">
         <v>92</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" hidden="1">
-      <c r="A120" s="21"/>
+    <row r="120" spans="1:6">
+      <c r="A120" s="8"/>
       <c r="B120" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" s="12" t="s">
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="15" t="s">
         <v>98</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" hidden="1">
-      <c r="A121" s="21"/>
+    <row r="121" spans="1:6">
+      <c r="A121" s="8"/>
       <c r="B121" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" hidden="1">
-      <c r="A122" s="22"/>
+    <row r="122" spans="1:6">
+      <c r="A122" s="10"/>
       <c r="B122" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="12" t="s">
+      <c r="E122" s="15" t="s">
         <v>89</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" hidden="1">
-      <c r="A123" s="27" t="s">
+    <row r="123" spans="1:6">
+      <c r="A123" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" hidden="1">
-      <c r="A124" s="28"/>
-      <c r="B124" s="8" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" s="24"/>
+      <c r="B124" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" hidden="1">
-      <c r="A125" s="28"/>
-      <c r="B125" s="8" t="s">
+    <row r="125" spans="1:6">
+      <c r="A125" s="24"/>
+      <c r="B125" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E125" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" hidden="1">
-      <c r="A126" s="28"/>
-      <c r="B126" s="8" t="s">
+    <row r="126" spans="1:6">
+      <c r="A126" s="24"/>
+      <c r="B126" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" hidden="1">
-      <c r="A127" s="28"/>
-      <c r="B127" s="8" t="s">
+    <row r="127" spans="1:6">
+      <c r="A127" s="24"/>
+      <c r="B127" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" hidden="1">
-      <c r="A128" s="28"/>
-      <c r="B128" s="8" t="s">
+    <row r="128" spans="1:6">
+      <c r="A128" s="24"/>
+      <c r="B128" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="10" t="s">
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" hidden="1">
-      <c r="A129" s="28"/>
-      <c r="B129" s="8" t="s">
+    <row r="129" spans="1:6">
+      <c r="A129" s="24"/>
+      <c r="B129" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="10" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" hidden="1">
-      <c r="A130" s="28"/>
-      <c r="B130" s="8" t="s">
+    <row r="130" spans="1:6">
+      <c r="A130" s="24"/>
+      <c r="B130" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="10" t="s">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" hidden="1">
-      <c r="A131" s="28"/>
-      <c r="B131" s="8" t="s">
+    <row r="131" spans="1:6">
+      <c r="A131" s="24"/>
+      <c r="B131" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="10" t="s">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" hidden="1">
-      <c r="A132" s="28"/>
-      <c r="B132" s="8" t="s">
+    <row r="132" spans="1:6">
+      <c r="A132" s="24"/>
+      <c r="B132" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="10" t="s">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" hidden="1">
-      <c r="A133" s="29"/>
-      <c r="B133" s="8" t="s">
+    <row r="133" spans="1:6">
+      <c r="A133" s="25"/>
+      <c r="B133" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="10" t="s">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" hidden="1">
-      <c r="A134" s="30" t="s">
+    <row r="134" spans="1:6">
+      <c r="A134" s="26" t="s">
         <v>205</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -3935,141 +4498,141 @@
       <c r="D134" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E134" s="15" t="s">
         <v>144</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" hidden="1">
-      <c r="A135" s="31"/>
+    <row r="135" spans="1:6">
+      <c r="A135" s="27"/>
       <c r="B135" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="D135" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E135" s="15" t="s">
         <v>147</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" hidden="1">
-      <c r="A136" s="31"/>
+    <row r="136" spans="1:6">
+      <c r="A136" s="27"/>
       <c r="B136" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D136" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="15" t="s">
         <v>207</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" hidden="1">
-      <c r="A137" s="31"/>
+    <row r="137" spans="1:6">
+      <c r="A137" s="27"/>
       <c r="B137" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F137" s="16" t="s">
+      <c r="F137" s="19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" hidden="1">
-      <c r="A138" s="31"/>
+    <row r="138" spans="1:6">
+      <c r="A138" s="27"/>
       <c r="B138" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E138" s="12"/>
+      <c r="E138" s="15"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" ht="15" hidden="1">
-      <c r="A139" s="32"/>
+    <row r="139" spans="1:6">
+      <c r="A139" s="28"/>
       <c r="B139" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="12"/>
+      <c r="E139" s="15"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" hidden="1">
-      <c r="A140" s="27" t="s">
+    <row r="140" spans="1:6">
+      <c r="A140" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
-      <c r="A141" s="28"/>
-      <c r="B141" s="8" t="s">
+    <row r="141" spans="1:6">
+      <c r="A141" s="24"/>
+      <c r="B141" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-    </row>
-    <row r="142" spans="1:6" hidden="1">
-      <c r="A142" s="28"/>
-      <c r="B142" s="8" t="s">
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="24"/>
+      <c r="B142" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" hidden="1">
-      <c r="A143" s="20" t="s">
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -4088,8 +4651,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
-      <c r="A144" s="21"/>
+    <row r="144" spans="1:6">
+      <c r="A144" s="8"/>
       <c r="B144" s="3" t="s">
         <v>211</v>
       </c>
@@ -4102,316 +4665,316 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" hidden="1">
-      <c r="A145" s="21"/>
+    <row r="145" spans="1:6">
+      <c r="A145" s="8"/>
       <c r="B145" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" hidden="1">
-      <c r="A146" s="21"/>
+    <row r="146" spans="1:6">
+      <c r="A146" s="8"/>
       <c r="B146" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" ht="15" hidden="1">
-      <c r="A147" s="27" t="s">
+    <row r="147" spans="1:6">
+      <c r="A147" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" hidden="1">
-      <c r="A148" s="28"/>
-      <c r="B148" s="8" t="s">
+    <row r="148" spans="1:6">
+      <c r="A148" s="24"/>
+      <c r="B148" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E148" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="F148" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" hidden="1">
-      <c r="A149" s="28"/>
-      <c r="B149" s="8" t="s">
+    <row r="149" spans="1:6">
+      <c r="A149" s="24"/>
+      <c r="B149" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E149" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F149" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" hidden="1">
-      <c r="A150" s="28"/>
-      <c r="B150" s="8" t="s">
+    <row r="150" spans="1:6">
+      <c r="A150" s="24"/>
+      <c r="B150" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="10" t="s">
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F150" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" hidden="1">
-      <c r="A151" s="28"/>
-      <c r="B151" s="8" t="s">
+    <row r="151" spans="1:6">
+      <c r="A151" s="24"/>
+      <c r="B151" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="10" t="s">
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F151" s="8" t="s">
+      <c r="F151" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" hidden="1">
-      <c r="A152" s="28"/>
-      <c r="B152" s="8" t="s">
+    <row r="152" spans="1:6">
+      <c r="A152" s="24"/>
+      <c r="B152" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="10" t="s">
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="F152" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" hidden="1">
-      <c r="A153" s="28"/>
-      <c r="B153" s="8" t="s">
+    <row r="153" spans="1:6">
+      <c r="A153" s="24"/>
+      <c r="B153" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="17" t="s">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="F153" s="16" t="s">
+      <c r="F153" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" hidden="1">
-      <c r="A154" s="28"/>
-      <c r="B154" s="8" t="s">
+    <row r="154" spans="1:6">
+      <c r="A154" s="24"/>
+      <c r="B154" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="10" t="s">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F154" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" hidden="1">
-      <c r="A155" s="28"/>
-      <c r="B155" s="8" t="s">
+    <row r="155" spans="1:6">
+      <c r="A155" s="24"/>
+      <c r="B155" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="10" t="s">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F155" s="8" t="s">
+      <c r="F155" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" hidden="1">
-      <c r="A156" s="28"/>
-      <c r="B156" s="8" t="s">
+    <row r="156" spans="1:6">
+      <c r="A156" s="24"/>
+      <c r="B156" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="10" t="s">
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" hidden="1">
-      <c r="A157" s="28"/>
-      <c r="B157" s="8" t="s">
+    <row r="157" spans="1:6">
+      <c r="A157" s="24"/>
+      <c r="B157" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="10" t="s">
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="F157" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15" hidden="1">
-      <c r="A158" s="28"/>
-      <c r="B158" s="8" t="s">
+    <row r="158" spans="1:6">
+      <c r="A158" s="24"/>
+      <c r="B158" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="10" t="s">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="F158" s="8" t="s">
+      <c r="F158" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" hidden="1">
-      <c r="A159" s="28"/>
-      <c r="B159" s="8" t="s">
+    <row r="159" spans="1:6">
+      <c r="A159" s="24"/>
+      <c r="B159" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="10" t="s">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F159" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" hidden="1">
-      <c r="A160" s="28"/>
-      <c r="B160" s="8" t="s">
+    <row r="160" spans="1:6">
+      <c r="A160" s="24"/>
+      <c r="B160" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="10" t="s">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" hidden="1">
-      <c r="A161" s="28"/>
-      <c r="B161" s="8" t="s">
+    <row r="161" spans="1:6">
+      <c r="A161" s="24"/>
+      <c r="B161" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="10" t="s">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" hidden="1">
-      <c r="A162" s="28"/>
-      <c r="B162" s="8" t="s">
+    <row r="162" spans="1:6">
+      <c r="A162" s="24"/>
+      <c r="B162" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="10" t="s">
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" hidden="1">
-      <c r="A163" s="28"/>
-      <c r="B163" s="8" t="s">
+    <row r="163" spans="1:6">
+      <c r="A163" s="24"/>
+      <c r="B163" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="10" t="s">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F163" s="8" t="s">
+      <c r="F163" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" hidden="1">
-      <c r="A164" s="28"/>
-      <c r="B164" s="8" t="s">
+    <row r="164" spans="1:6">
+      <c r="A164" s="24"/>
+      <c r="B164" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="10" t="s">
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" hidden="1">
-      <c r="A165" s="29"/>
-      <c r="B165" s="8" t="s">
+    <row r="165" spans="1:6">
+      <c r="A165" s="25"/>
+      <c r="B165" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="17" t="s">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F165" s="16" t="s">
+      <c r="F165" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1">
-      <c r="A166" s="20" t="s">
+    <row r="166" spans="1:6">
+      <c r="A166" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -4430,8 +4993,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1">
-      <c r="A167" s="21"/>
+    <row r="167" spans="1:6">
+      <c r="A167" s="8"/>
       <c r="B167" s="3" t="s">
         <v>239</v>
       </c>
@@ -4444,8 +5007,8 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6" hidden="1">
-      <c r="A168" s="21"/>
+    <row r="168" spans="1:6">
+      <c r="A168" s="8"/>
       <c r="B168" s="3" t="s">
         <v>239</v>
       </c>
@@ -4458,8 +5021,8 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6" hidden="1">
-      <c r="A169" s="21"/>
+    <row r="169" spans="1:6">
+      <c r="A169" s="8"/>
       <c r="B169" s="3" t="s">
         <v>239</v>
       </c>
@@ -4472,138 +5035,138 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" hidden="1">
-      <c r="A170" s="21"/>
+    <row r="170" spans="1:6">
+      <c r="A170" s="8"/>
       <c r="B170" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" hidden="1">
-      <c r="A171" s="22"/>
+    <row r="171" spans="1:6">
+      <c r="A171" s="10"/>
       <c r="B171" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" hidden="1">
-      <c r="A172" s="23" t="s">
+    <row r="172" spans="1:6">
+      <c r="A172" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F172" s="8" t="s">
+      <c r="F172" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
-      <c r="A173" s="23"/>
-      <c r="B173" s="18" t="s">
+    <row r="173" spans="1:6">
+      <c r="A173" s="11"/>
+      <c r="B173" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F173" s="8" t="s">
+      <c r="F173" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
-      <c r="A174" s="23"/>
-      <c r="B174" s="18" t="s">
+    <row r="174" spans="1:6">
+      <c r="A174" s="11"/>
+      <c r="B174" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F174" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
-      <c r="A175" s="23"/>
-      <c r="B175" s="18" t="s">
+    <row r="175" spans="1:6">
+      <c r="A175" s="11"/>
+      <c r="B175" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F175" s="8" t="s">
+      <c r="F175" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
-      <c r="A176" s="23"/>
-      <c r="B176" s="18" t="s">
+    <row r="176" spans="1:6">
+      <c r="A176" s="11"/>
+      <c r="B176" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8" t="s">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F176" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
-      <c r="A177" s="23"/>
-      <c r="B177" s="18" t="s">
+    <row r="177" spans="1:6">
+      <c r="A177" s="11"/>
+      <c r="B177" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8" t="s">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F177" s="8" t="s">
+      <c r="F177" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
-      <c r="A178" s="20" t="s">
+    <row r="178" spans="1:6">
+      <c r="A178" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -4622,8 +5185,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
-      <c r="A179" s="21"/>
+    <row r="179" spans="1:6">
+      <c r="A179" s="8"/>
       <c r="B179" s="3" t="s">
         <v>252</v>
       </c>
@@ -4634,14 +5197,14 @@
         <v>11</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1">
-      <c r="A180" s="21"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="8"/>
       <c r="B180" s="3" t="s">
         <v>252</v>
       </c>
@@ -4652,404 +5215,404 @@
         <v>21</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>364</v>
+        <v>255</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
-      <c r="A181" s="21"/>
+    <row r="181" spans="1:6">
+      <c r="A181" s="8"/>
       <c r="B181" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D181" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>365</v>
+        <v>114</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" hidden="1">
-      <c r="A182" s="21"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="8"/>
       <c r="B182" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>366</v>
+        <v>257</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1">
-      <c r="A183" s="21"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="8"/>
       <c r="B183" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1">
-      <c r="A184" s="21"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="8"/>
       <c r="B184" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1">
-      <c r="A185" s="21"/>
+    <row r="185" spans="1:6">
+      <c r="A185" s="8"/>
       <c r="B185" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>369</v>
+        <v>261</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" hidden="1">
-      <c r="A186" s="21"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="8"/>
       <c r="B186" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>370</v>
+        <v>263</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" hidden="1">
-      <c r="A187" s="22"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="10"/>
       <c r="B187" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" hidden="1">
-      <c r="A188" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C188" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C188" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E188" s="10" t="s">
+      <c r="E188" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="21"/>
+      <c r="B189" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F188" s="8" t="s">
+      <c r="F189" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" hidden="1">
-      <c r="A189" s="26"/>
-      <c r="B189" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E189" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" hidden="1">
-      <c r="A190" s="26"/>
-      <c r="B190" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C190" s="16" t="s">
+    <row r="190" spans="1:6">
+      <c r="A190" s="21"/>
+      <c r="B190" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C190" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="16" t="s">
+      <c r="D190" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E190" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" hidden="1">
-      <c r="A191" s="26"/>
-      <c r="B191" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C191" s="16" t="s">
+      <c r="E190" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="21"/>
+      <c r="B191" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C191" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D191" s="16" t="s">
+      <c r="D191" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E191" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F191" s="9" t="s">
+      <c r="E191" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="21"/>
+      <c r="B192" s="11" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15" hidden="1">
-      <c r="A192" s="26"/>
-      <c r="B192" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F192" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" hidden="1">
-      <c r="A193" s="26"/>
-      <c r="B193" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="11" t="s">
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="21"/>
+      <c r="B193" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F193" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" hidden="1">
-      <c r="A194" s="26"/>
-      <c r="B194" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F194" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" hidden="1">
-      <c r="A195" s="26"/>
-      <c r="B195" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F195" s="9" t="s">
+      <c r="F193" s="12" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" hidden="1">
-      <c r="A196" s="26"/>
-      <c r="B196" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="10" t="s">
+    <row r="194" spans="1:6">
+      <c r="A194" s="21"/>
+      <c r="B194" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="F196" s="8" t="s">
+      <c r="F194" s="12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" hidden="1">
-      <c r="A197" s="26"/>
-      <c r="B197" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="10" t="s">
+    <row r="195" spans="1:6">
+      <c r="A195" s="21"/>
+      <c r="B195" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="F197" s="8" t="s">
+      <c r="F195" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" hidden="1">
-      <c r="A198" s="26"/>
-      <c r="B198" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="10" t="s">
+    <row r="196" spans="1:6">
+      <c r="A196" s="21"/>
+      <c r="B196" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="21"/>
+      <c r="B197" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="21"/>
+      <c r="B198" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F198" s="8" t="s">
+      <c r="F198" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" hidden="1">
-      <c r="A199" s="26"/>
-      <c r="B199" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="10" t="s">
+    <row r="199" spans="1:6">
+      <c r="A199" s="21"/>
+      <c r="B199" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F199" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="15" hidden="1">
-      <c r="A200" s="26"/>
-      <c r="B200" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="10" t="s">
+      <c r="F199" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="21"/>
+      <c r="B200" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F200" s="8" t="s">
+      <c r="F200" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" hidden="1">
-      <c r="A201" s="26"/>
-      <c r="B201" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="10" t="s">
+    <row r="201" spans="1:6">
+      <c r="A201" s="21"/>
+      <c r="B201" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F201" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="15" hidden="1">
-      <c r="A202" s="26"/>
-      <c r="B202" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="F202" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="15" hidden="1">
-      <c r="A203" s="26"/>
-      <c r="B203" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F203" s="8" t="s">
+      <c r="F201" s="11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" hidden="1">
-      <c r="A204" s="26"/>
-      <c r="B204" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="11" t="s">
+    <row r="202" spans="1:6">
+      <c r="A202" s="21"/>
+      <c r="B202" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="F204" s="9" t="s">
+      <c r="F202" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" hidden="1">
-      <c r="A205" s="26"/>
-      <c r="B205" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="11" t="s">
+    <row r="203" spans="1:6">
+      <c r="A203" s="21"/>
+      <c r="B203" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F203" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="21"/>
+      <c r="B204" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="21"/>
+      <c r="B205" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F205" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="15" hidden="1">
-      <c r="A206" s="26"/>
-      <c r="B206" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="17" t="s">
+      <c r="F205" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="21"/>
+      <c r="B206" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F206" s="16" t="s">
+      <c r="F206" s="19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="20" t="s">
-        <v>289</v>
+      <c r="A207" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>8</v>
@@ -5061,13 +5624,13 @@
         <v>102</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="21"/>
+      <c r="A208" s="8"/>
       <c r="B208" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>10</v>
@@ -5076,52 +5639,52 @@
         <v>11</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="21"/>
+      <c r="A209" s="8"/>
       <c r="B209" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="21"/>
+      <c r="A210" s="8"/>
       <c r="B210" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="21"/>
+      <c r="A211" s="8"/>
       <c r="B211" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>20</v>
@@ -5133,176 +5696,176 @@
         <v>189</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="21"/>
+      <c r="A212" s="8"/>
       <c r="B212" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C212" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C212" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="21"/>
+      <c r="A213" s="8"/>
       <c r="B213" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="21"/>
+      <c r="A214" s="8"/>
       <c r="B214" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="21"/>
+      <c r="A215" s="8"/>
       <c r="B215" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="22"/>
+      <c r="A216" s="10"/>
       <c r="B216" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" hidden="1">
-      <c r="A217" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C217" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C217" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E217" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F217" s="8" t="s">
+      <c r="E217" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F217" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1">
-      <c r="A218" s="28"/>
-      <c r="B218" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C218" s="9" t="s">
+    <row r="218" spans="1:6">
+      <c r="A218" s="24"/>
+      <c r="B218" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C218" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="D218" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E218" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F218" s="8" t="s">
+      <c r="F218" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1">
-      <c r="A219" s="28"/>
-      <c r="B219" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C219" s="16" t="s">
+    <row r="219" spans="1:6">
+      <c r="A219" s="24"/>
+      <c r="B219" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C219" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D219" s="16" t="s">
+      <c r="D219" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E219" s="8" t="s">
+      <c r="E219" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F219" s="8" t="s">
+      <c r="F219" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1">
-      <c r="A220" s="28"/>
-      <c r="B220" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C220" s="16" t="s">
+    <row r="220" spans="1:6">
+      <c r="A220" s="24"/>
+      <c r="B220" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C220" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D220" s="16" t="s">
+      <c r="D220" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-    </row>
-    <row r="221" spans="1:6" hidden="1">
-      <c r="A221" s="29"/>
-      <c r="B221" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C221" s="16" t="s">
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="25"/>
+      <c r="B221" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C221" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D221" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-    </row>
-    <row r="222" spans="1:6" hidden="1">
-      <c r="A222" s="20" t="s">
-        <v>313</v>
+      <c r="D221" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>145</v>
@@ -5311,27 +5874,27 @@
         <v>89</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" hidden="1">
-      <c r="A223" s="21"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="8"/>
       <c r="B223" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C223" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C223" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="1:6" hidden="1">
-      <c r="A224" s="22"/>
+    <row r="224" spans="1:6">
+      <c r="A224" s="10"/>
       <c r="B224" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>20</v>
@@ -5342,64 +5905,64 @@
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="1:6" hidden="1">
-      <c r="A225" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C225" s="16" t="s">
+    <row r="225" spans="1:6">
+      <c r="A225" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C225" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D225" s="16" t="s">
+      <c r="D225" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E225" s="8" t="s">
+      <c r="E225" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F225" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" hidden="1">
-      <c r="A226" s="28"/>
-      <c r="B226" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C226" s="9" t="s">
+      <c r="F225" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="24"/>
+      <c r="B226" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C226" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D226" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E226" s="8" t="s">
+      <c r="E226" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F226" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" hidden="1">
-      <c r="A227" s="29"/>
-      <c r="B227" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C227" s="8" t="s">
+      <c r="F226" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="25"/>
+      <c r="B227" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C227" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D227" s="8" t="s">
+      <c r="D227" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-    </row>
-    <row r="228" spans="1:6" hidden="1">
-      <c r="A228" s="20" t="s">
-        <v>319</v>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>8</v>
@@ -5414,10 +5977,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1">
-      <c r="A229" s="21"/>
+    <row r="229" spans="1:6">
+      <c r="A229" s="8"/>
       <c r="B229" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>10</v>
@@ -5432,15 +5995,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1">
-      <c r="A230" s="21"/>
+    <row r="230" spans="1:6">
+      <c r="A230" s="8"/>
       <c r="B230" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C230" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D230" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -5450,10 +6013,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1">
-      <c r="A231" s="21"/>
+    <row r="231" spans="1:6">
+      <c r="A231" s="8"/>
       <c r="B231" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>20</v>
@@ -5464,91 +6027,91 @@
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="1:6" hidden="1">
-      <c r="A232" s="21"/>
+    <row r="232" spans="1:6">
+      <c r="A232" s="8"/>
       <c r="B232" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C232" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C232" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D232" s="16" t="s">
-        <v>312</v>
+      <c r="D232" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="1:6" hidden="1">
-      <c r="A233" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C233" s="15" t="s">
+    <row r="233" spans="1:6">
+      <c r="A233" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C233" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D233" s="15" t="s">
+      <c r="D233" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E233" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" hidden="1">
-      <c r="A234" s="28"/>
-      <c r="B234" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C234" s="9" t="s">
+      <c r="E233" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="24"/>
+      <c r="B234" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C234" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D234" s="9" t="s">
+      <c r="D234" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E234" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F234" s="8" t="s">
+      <c r="E234" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="24"/>
+      <c r="B235" s="11" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" hidden="1">
-      <c r="A235" s="28"/>
-      <c r="B235" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="8" t="s">
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="24"/>
+      <c r="B236" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" hidden="1">
-      <c r="A236" s="28"/>
-      <c r="B236" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-    </row>
-    <row r="237" spans="1:6" hidden="1">
-      <c r="A237" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>145</v>
@@ -5557,27 +6120,27 @@
         <v>89</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" hidden="1">
-      <c r="A238" s="21"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="8"/>
       <c r="B238" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C238" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D238" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:6" hidden="1">
-      <c r="A239" s="22"/>
+    <row r="239" spans="1:6">
+      <c r="A239" s="10"/>
       <c r="B239" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>20</v>
@@ -5588,60 +6151,60 @@
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:6" hidden="1">
-      <c r="A240" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E240" s="8" t="s">
+    <row r="240" spans="1:6">
+      <c r="A240" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E240" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F240" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" hidden="1">
-      <c r="A241" s="34"/>
-      <c r="B241" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C241" s="9" t="s">
+      <c r="F240" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="31"/>
+      <c r="B241" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C241" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="D241" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-    </row>
-    <row r="242" spans="1:6" hidden="1">
-      <c r="A242" s="35"/>
-      <c r="B242" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C242" s="8" t="s">
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="32"/>
+      <c r="B242" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C242" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="D242" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-    </row>
-    <row r="243" spans="1:6" hidden="1">
-      <c r="A243" s="20" t="s">
-        <v>336</v>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>8</v>
@@ -5650,16 +6213,16 @@
         <v>163</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" hidden="1">
-      <c r="A244" s="21"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="8"/>
       <c r="B244" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>20</v>
@@ -5668,62 +6231,62 @@
         <v>21</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" hidden="1">
-      <c r="A245" s="21"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="8"/>
       <c r="B245" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C245" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C245" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D245" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E245" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F245" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" hidden="1">
-      <c r="A246" s="21"/>
+      <c r="E245" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="8"/>
       <c r="B246" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
-      <c r="E246" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F246" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" hidden="1">
-      <c r="A247" s="21"/>
+      <c r="E246" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="8"/>
       <c r="B247" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" hidden="1">
-      <c r="A248" s="21"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="8"/>
       <c r="B248" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -5734,10 +6297,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1">
-      <c r="A249" s="21"/>
+    <row r="249" spans="1:6">
+      <c r="A249" s="8"/>
       <c r="B249" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -5745,13 +6308,13 @@
         <v>164</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" hidden="1">
-      <c r="A250" s="21"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="8"/>
       <c r="B250" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -5762,10 +6325,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1">
-      <c r="A251" s="22"/>
+    <row r="251" spans="1:6">
+      <c r="A251" s="10"/>
       <c r="B251" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -5773,160 +6336,155 @@
         <v>167</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" hidden="1">
-      <c r="A252" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="B252" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C252" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B252" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C252" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D252" s="19" t="s">
+      <c r="D252" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E252" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="F252" s="19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" hidden="1">
-      <c r="A253" s="37"/>
-      <c r="B253" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C253" s="19" t="s">
+      <c r="E252" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="F252" s="34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="35"/>
+      <c r="B253" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C253" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D253" s="19" t="s">
+      <c r="D253" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E253" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="F253" s="19" t="s">
+      <c r="E253" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="F253" s="34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1">
-      <c r="A254" s="37"/>
-      <c r="B254" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C254" s="19" t="s">
+    <row r="254" spans="1:6">
+      <c r="A254" s="35"/>
+      <c r="B254" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C254" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D254" s="19" t="s">
+      <c r="D254" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E254" s="19"/>
-      <c r="F254" s="19"/>
-    </row>
-    <row r="255" spans="1:6" hidden="1">
-      <c r="A255" s="37"/>
-      <c r="B255" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C255" s="19" t="s">
+      <c r="E254" s="34"/>
+      <c r="F254" s="34"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="35"/>
+      <c r="B255" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C255" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D255" s="19" t="s">
+      <c r="D255" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E255" s="19"/>
-      <c r="F255" s="19"/>
-    </row>
-    <row r="256" spans="1:6" hidden="1">
-      <c r="A256" s="37"/>
-      <c r="B256" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C256" s="19" t="s">
+      <c r="E255" s="34"/>
+      <c r="F255" s="34"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="35"/>
+      <c r="B256" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C256" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D256" s="19" t="s">
+      <c r="D256" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="36"/>
+      <c r="B257" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-    </row>
-    <row r="257" spans="1:6" hidden="1">
-      <c r="A257" s="38"/>
-      <c r="B257" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C257" s="19" t="s">
+      <c r="C257" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D257" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
+      <c r="D257" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F257">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="back2/report/index"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F257"/>
   <mergeCells count="32">
-    <mergeCell ref="A243:A251"/>
-    <mergeCell ref="A252:A257"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="A69:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="A134:A139"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A165"/>
+    <mergeCell ref="A166:A171"/>
+    <mergeCell ref="A172:A177"/>
+    <mergeCell ref="A178:A187"/>
+    <mergeCell ref="A188:A206"/>
+    <mergeCell ref="A207:A216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A222:A224"/>
     <mergeCell ref="A225:A227"/>
     <mergeCell ref="A228:A232"/>
     <mergeCell ref="A233:A236"/>
     <mergeCell ref="A237:A239"/>
     <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A178:A187"/>
-    <mergeCell ref="A188:A206"/>
-    <mergeCell ref="A207:A216"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A147:A165"/>
-    <mergeCell ref="A166:A171"/>
-    <mergeCell ref="A172:A177"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="A134:A139"/>
-    <mergeCell ref="A60:A68"/>
-    <mergeCell ref="A69:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="A243:A251"/>
+    <mergeCell ref="A252:A257"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -5934,93 +6492,94 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>